--- a/tests/14_Data_Approve_Request.xlsx
+++ b/tests/14_Data_Approve_Request.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1608B-E5E6-4B2F-942D-D44596DBA93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48794FC7-59C7-4B21-9E70-73B23873CDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>กดปุ่มยืนยันคอส</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>คุณแน่ใจหรือว่าต้องการดำเนินการตามคำร้องขอนี้?</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Check Item</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>Close Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Pass/Fail </t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,38 @@
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -645,7 +676,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,25 +717,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -732,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>3</v>
@@ -752,27 +791,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="23"/>
     </row>
@@ -780,10 +819,10 @@
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="23"/>
     </row>
@@ -791,10 +830,10 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="23"/>
     </row>
@@ -802,10 +841,10 @@
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="23"/>
     </row>
@@ -813,10 +852,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="23"/>
     </row>
@@ -824,10 +863,10 @@
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="23"/>
     </row>
@@ -835,10 +874,10 @@
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="24"/>

--- a/tests/14_Data_Approve_Request.xlsx
+++ b/tests/14_Data_Approve_Request.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48794FC7-59C7-4B21-9E70-73B23873CDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F275F4-C1DE-4CE0-9409-4EFCD60DCF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
@@ -384,16 +384,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -676,7 +666,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -737,11 +727,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
